--- a/data/DSCI.xlsx
+++ b/data/DSCI.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DSCI 230 and DSCI 231.</t>
+          <t>DSCI 230 and DSCI 231.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -503,6 +593,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DSCI 231, or FSN 125, or FSN 230.</t>
+          <t>DSCI 231, or FSN 125, or FSN 230.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DSCI 230.</t>
+          <t>DSCI 230.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ASCI 220 with a grade of C- or better or consent of instructor.</t>
+          <t>ASCI 220 with a grade of C- or better or consent of instructor.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ASCI 220; DSCI 230; and BIO 111 or BIO 161.</t>
+          <t>ASCI 220; DSCI 230; and BIO 111 or BIO 161.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ASCI 229 or DSCI 230.</t>
+          <t>ASCI 229 or DSCI 230.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ASCI 220 and DSCI 230.</t>
+          <t>ASCI 220 and DSCI 230.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -718,12 +958,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Junior standing. Recommended: CHEM 312.</t>
+          <t>Junior standing.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CHEM 312.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DSCI 444 or MCRO 421.</t>
+          <t>DSCI 444 or MCRO 421.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASCI 229; and ASCI 355 or DSCI 301.</t>
+          <t>ASCI 229; and ASCI 355 or DSCI 301.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DSCI 333.</t>
+          <t>DSCI 333.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DSCI 241, BIO 111 or higher, STAT 130 or higher.</t>
+          <t>DSCI 241, BIO 111 or higher, STAT 130 or higher.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DSCI 333.</t>
+          <t>DSCI 333.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DSCI 233 or FSN 204.</t>
+          <t>DSCI 233 or FSN 204.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -872,12 +1217,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DSCI 231; MCRO 221 or MCRO 224; and STAT 218. Recommended: CHEM 313.</t>
+          <t>DSCI 231; MCRO 221 or MCRO 224; and STAT 218.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CHEM 313.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DSCI 233 or FSN 204.</t>
+          <t>DSCI 233 or FSN 204.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DSCI 233; and MCRO 221 or MCRO 224; and STAT 130 or STAT 218; or graduate standing.</t>
+          <t>DSCI 233; and MCRO 221 or MCRO 224; and STAT 130 or STAT 218; or graduate standing.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1026,12 +1476,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CHEM 212 or CHEM 312; admission to Master of Professional Studies program in Dairy Products Technology. Recommended: Differential and Integral Calculus.</t>
+          <t>CHEM 212 or CHEM 312; admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Differential and Integral Calculus.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DSCI 501; admission to Master of Professional Studies program in Dairy Products Technology.</t>
+          <t>DSCI 501; admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1092,12 +1587,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Admission to Master of Professional Studies program in Dairy Products Technology. Concurrent: DSCI 540.</t>
+          <t>Admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DSCI 540.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DSCI 520; admission to Master of Professional Studies program in Dairy Products Technology.</t>
+          <t>DSCI 520; admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DSCI 520 and admission to Master of Professional Studies program in Dairy Products Technology.</t>
+          <t>DSCI 520 and admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DSCI 501 and admission to Master of Professional Studies program in Dairy Products Technology.</t>
+          <t>DSCI 501 and admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1185,6 +1740,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -1202,12 +1772,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Admission to Master of Professional Studies program in Dairy Products Technology. Concurrent: DSCI 520. Recommended: MCRO 221 or equivalent.</t>
+          <t>Admission to Master of Professional Studies program in Dairy Products Technology.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DSCI 520.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MCRO 221 or equivalent.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F  </t>
         </is>
       </c>
     </row>
@@ -1229,6 +1814,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DSCI 520; admission to Master of Professional Studies program in Dairy Science Technology.</t>
+          <t>DSCI 520; admission to Master of Professional Studies program in Dairy Science Technology.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1317,6 +1962,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1339,6 +1999,21 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1361,6 +2036,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1383,6 +2073,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1404,6 +2109,21 @@
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
